--- a/ig/ch-ips/StructureDefinition-ch-ips-practitionerrole.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-practitionerrole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:26:13+00:00</t>
+    <t>2024-12-18T08:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-ips/StructureDefinition-ch-ips-practitionerrole.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-practitionerrole.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:08:56+00:00</t>
+    <t>2025-05-22T08:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1199,17 +1199,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1218,26 +1218,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.23828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-ips/StructureDefinition-ch-ips-practitionerrole.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T08:10:43+00:00</t>
+    <t>2025-12-16T12:02:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -606,9 +606,6 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-term/ValueSet/HCProfessional.hcProfession</t>
   </si>
   <si>
@@ -664,7 +661,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -863,7 +860,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -3021,11 +3018,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3058,10 +3055,10 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>172</v>
@@ -3072,10 +3069,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3101,10 +3098,10 @@
         <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3131,11 +3128,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3153,7 +3150,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3168,13 +3165,13 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3182,10 +3179,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3208,13 +3205,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3265,7 +3262,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3283,21 +3280,21 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3320,13 +3317,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3377,7 +3374,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3392,10 +3389,10 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -3406,10 +3403,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3432,17 +3429,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3491,7 +3488,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3509,7 +3506,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -3520,10 +3517,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3546,16 +3543,16 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3605,7 +3602,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -3623,7 +3620,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -3634,10 +3631,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3660,13 +3657,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3717,7 +3714,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -3735,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3746,10 +3743,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3778,7 +3775,7 @@
         <v>136</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>138</v>
@@ -3831,7 +3828,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -3849,7 +3846,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -3860,14 +3857,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3889,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>138</v>
@@ -3947,7 +3944,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -3976,10 +3973,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4005,10 +4002,10 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4035,14 +4032,14 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4077,7 +4074,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4088,10 +4085,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4117,10 +4114,10 @@
         <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4171,7 +4168,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4189,7 +4186,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4200,10 +4197,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4226,16 +4223,16 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4285,7 +4282,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4303,7 +4300,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4314,10 +4311,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4340,16 +4337,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4399,7 +4396,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4417,7 +4414,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4428,10 +4425,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4454,13 +4451,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4511,7 +4508,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -4529,7 +4526,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4540,10 +4537,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4566,13 +4563,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4623,7 +4620,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -4641,7 +4638,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4652,10 +4649,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4684,7 +4681,7 @@
         <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>138</v>
@@ -4737,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -4755,7 +4752,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4766,14 +4763,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4795,10 +4792,10 @@
         <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>138</v>
@@ -4853,7 +4850,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4908,13 +4905,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4965,7 +4962,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
@@ -4983,7 +4980,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -4994,10 +4991,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5023,10 +5020,10 @@
         <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5077,7 +5074,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5095,7 +5092,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5106,10 +5103,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5132,13 +5129,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5189,7 +5186,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5207,7 +5204,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5218,10 +5215,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5244,17 +5241,17 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5303,7 +5300,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5321,7 +5318,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
